--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/HZNP/HZNPNamedTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/HZNP/HZNPNamedTradeLongHold.xlsx
@@ -363,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,14 +404,28 @@
       <c r="A2" s="1">
         <v>42633.875057870369</v>
       </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
       <c r="C2">
         <v>10000</v>
       </c>
       <c r="D2">
         <v>19.32</v>
       </c>
+      <c r="E2">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
       <c r="G2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/HZNP/HZNPNamedTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/HZNP/HZNPNamedTradeLongHold.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="10215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="WorkSheet 1" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,18 +362,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -396,36 +395,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>42633.875057870369</v>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
-      </c>
       <c r="C2">
         <v>10000</v>
-      </c>
-      <c r="D2">
-        <v>19.32</v>
-      </c>
-      <c r="E2">
-        <v>19.170000000000002</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/HZNP/HZNPNamedTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/HZNP/HZNPNamedTradeLongHold.xlsx
@@ -80,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,12 +369,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -395,13 +396,22 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42642.487581018519</v>
+      </c>
       <c r="C2">
         <v>10000</v>
+      </c>
+      <c r="D2">
+        <v>18.97</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/HZNP/HZNPNamedTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/HZNP/HZNPNamedTradeLongHold.xlsx
@@ -369,12 +369,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/HZNP/HZNPNamedTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/HZNP/HZNPNamedTradeLongHold.xlsx
@@ -369,12 +369,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
